--- a/tut05/output/0401CS06.xlsx
+++ b/tut05/output/0401CS06.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.612244897959183</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>8.363636363636363</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>9.209302325581396</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>8.638297872340425</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>8.80952380952381</v>
+        <v>8.81</v>
       </c>
       <c r="G6" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>8.75609756097561</v>
+        <v>8.76</v>
       </c>
       <c r="I6" t="n">
         <v>8.949999999999999</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.612244897959183</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>8.494623655913978</v>
+        <v>8.49</v>
       </c>
       <c r="D8" t="n">
-        <v>8.720588235294118</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>8.699453551912569</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F8" t="n">
         <v>8.720000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>8.716981132075471</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>8.722222222222221</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>8.748554913294798</v>
+        <v>8.75</v>
       </c>
     </row>
   </sheetData>
